--- a/Routes.xlsx
+++ b/Routes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\Websites\GuitarStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8476253-06CE-4B81-942C-FD54AE1E4139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9D73C6-AEEB-436D-BE22-53189012756D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{C343982A-AB7C-4CA9-886D-52A18AE1BCF2}"/>
+    <workbookView xWindow="5745" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{BCD2D467-2F82-41AF-8E33-11D24EF4F24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,124 +33,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>Route</t>
   </si>
   <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>users/:id</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
+    <t>A single user</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
+    <t>The created user</t>
+  </si>
+  <si>
+    <t>users/login</t>
+  </si>
+  <si>
+    <t>JWT Token</t>
+  </si>
+  <si>
+    <t>users/logout</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>products/</t>
+  </si>
+  <si>
+    <t>All products</t>
+  </si>
+  <si>
+    <t>users/</t>
+  </si>
+  <si>
+    <t>All Users</t>
+  </si>
+  <si>
+    <t>products/:id</t>
+  </si>
+  <si>
+    <t>A single product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t>products/category/:categoryId</t>
+  </si>
+  <si>
+    <t>All products in a category</t>
+  </si>
+  <si>
+    <t>True/false</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>user-order/</t>
+  </si>
+  <si>
+    <t>All user orders</t>
+  </si>
+  <si>
+    <t>user-order/:id</t>
+  </si>
+  <si>
+    <t>A single order</t>
+  </si>
+  <si>
+    <t>user-order/user/:id</t>
+  </si>
+  <si>
+    <t>All orders from a user</t>
+  </si>
+  <si>
+    <t>shopping-cart/user/:id</t>
+  </si>
+  <si>
+    <t>An array of products</t>
+  </si>
+  <si>
+    <t>sales/:id</t>
+  </si>
+  <si>
+    <t>sales/</t>
+  </si>
+  <si>
+    <t>All products on sale</t>
+  </si>
+  <si>
     <t>users/email/:email</t>
   </si>
   <si>
-    <t>users/:id</t>
-  </si>
-  <si>
-    <t>users/create</t>
-  </si>
-  <si>
-    <t>users/login</t>
-  </si>
-  <si>
-    <t>Request Body</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>products/</t>
-  </si>
-  <si>
-    <t>products/:id</t>
-  </si>
-  <si>
-    <t>products/category/:categoryId</t>
-  </si>
-  <si>
-    <t>products/create</t>
-  </si>
-  <si>
-    <t>users/delete/:id</t>
-  </si>
-  <si>
-    <t>products/delete/:id</t>
-  </si>
-  <si>
-    <t>Protected</t>
-  </si>
-  <si>
-    <t>user-order/</t>
-  </si>
-  <si>
-    <t>user-order/:id</t>
-  </si>
-  <si>
-    <t>user-order/create</t>
-  </si>
-  <si>
-    <t>user-order/delete/:id</t>
-  </si>
-  <si>
-    <t>shopping-cart/:id</t>
-  </si>
-  <si>
-    <t>An array of products</t>
-  </si>
-  <si>
-    <t>A single user</t>
-  </si>
-  <si>
-    <t>The created user</t>
-  </si>
-  <si>
-    <t>JWT Token</t>
-  </si>
-  <si>
-    <t>An array of all products</t>
-  </si>
-  <si>
-    <t>A single product</t>
-  </si>
-  <si>
-    <t>shopping-cart/create</t>
-  </si>
-  <si>
-    <t>An array of all orders</t>
-  </si>
-  <si>
-    <t>user-order/user/:id</t>
-  </si>
-  <si>
-    <t>A single order</t>
-  </si>
-  <si>
-    <t>All orders from a user</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>An array of all the user's shopping cart products</t>
-  </si>
-  <si>
-    <t>shopping-cart/delete/:id</t>
+    <t>user-order/user/email/:email</t>
+  </si>
+  <si>
+    <t>shopping-cart/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,19 +161,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +192,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,263 +506,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B6FF79-7F2D-4FB3-BA25-4976B690F7C3}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EB8A1F-FEC5-4D07-B103-E7DAEC2688FA}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>